--- a/data/pca/factorExposure/factorExposure_2011-04-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006965257332042812</v>
+        <v>0.01299467281537943</v>
       </c>
       <c r="C2">
-        <v>-5.175019106940866e-05</v>
+        <v>-0.001399967403611157</v>
       </c>
       <c r="D2">
-        <v>-0.04809946353536781</v>
+        <v>-0.0001951527192993402</v>
       </c>
       <c r="E2">
-        <v>-0.0009143157134545813</v>
+        <v>0.008133622594367612</v>
       </c>
       <c r="F2">
-        <v>0.009406890431751603</v>
+        <v>-0.0336177268180614</v>
       </c>
       <c r="G2">
-        <v>-0.01314972850265467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8.221585202919467e-05</v>
+      </c>
+      <c r="H2">
+        <v>0.005682804323676727</v>
+      </c>
+      <c r="I2">
+        <v>0.05345315264600066</v>
+      </c>
+      <c r="J2">
+        <v>-0.0586052032123513</v>
+      </c>
+      <c r="K2">
+        <v>0.01774091906437431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1043049940111819</v>
+        <v>0.1132494607308296</v>
       </c>
       <c r="C4">
-        <v>-0.02964959370322352</v>
+        <v>-0.06358217973545574</v>
       </c>
       <c r="D4">
-        <v>-0.0460850610056629</v>
+        <v>0.005378140661317908</v>
       </c>
       <c r="E4">
-        <v>-0.06072119736919328</v>
+        <v>0.0006987681823972855</v>
       </c>
       <c r="F4">
-        <v>0.03301070383824987</v>
+        <v>-0.03244066393364554</v>
       </c>
       <c r="G4">
-        <v>-0.02862272693779787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0699367963850786</v>
+      </c>
+      <c r="H4">
+        <v>0.1380607441903969</v>
+      </c>
+      <c r="I4">
+        <v>0.01982561983187335</v>
+      </c>
+      <c r="J4">
+        <v>0.04416126371043504</v>
+      </c>
+      <c r="K4">
+        <v>-0.02890050776482768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1290448586420868</v>
+        <v>0.1275190169159225</v>
       </c>
       <c r="C6">
-        <v>-0.02660946352714641</v>
+        <v>-0.03301880137627537</v>
       </c>
       <c r="D6">
-        <v>-0.0338110079654523</v>
+        <v>0.01157539582355208</v>
       </c>
       <c r="E6">
-        <v>0.01007217998799642</v>
+        <v>-0.01760543047241316</v>
       </c>
       <c r="F6">
-        <v>-0.139714462142695</v>
+        <v>0.004295908108044635</v>
       </c>
       <c r="G6">
-        <v>0.1129011123037903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.08409812956043985</v>
+      </c>
+      <c r="H6">
+        <v>0.0535222244195296</v>
+      </c>
+      <c r="I6">
+        <v>-0.1896972442677131</v>
+      </c>
+      <c r="J6">
+        <v>0.36642751266509</v>
+      </c>
+      <c r="K6">
+        <v>0.1603161785083813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09272191154844994</v>
+        <v>0.07430158979688234</v>
       </c>
       <c r="C7">
-        <v>-0.04248711104938141</v>
+        <v>-0.06709462518420498</v>
       </c>
       <c r="D7">
-        <v>-0.04328410074838175</v>
+        <v>0.03081453614965729</v>
       </c>
       <c r="E7">
-        <v>-0.0268705271700716</v>
+        <v>0.004629554936399187</v>
       </c>
       <c r="F7">
-        <v>-0.02106513905256139</v>
+        <v>-0.0568656193579242</v>
       </c>
       <c r="G7">
-        <v>-0.03233777576843737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02901124316666432</v>
+      </c>
+      <c r="H7">
+        <v>0.03451310417936604</v>
+      </c>
+      <c r="I7">
+        <v>-0.01355480287423663</v>
+      </c>
+      <c r="J7">
+        <v>-0.01951919704187456</v>
+      </c>
+      <c r="K7">
+        <v>-0.1007856699778053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04413280633862317</v>
+        <v>0.05300788372973517</v>
       </c>
       <c r="C8">
-        <v>0.02233907115997156</v>
+        <v>-0.0164354994766933</v>
       </c>
       <c r="D8">
-        <v>-0.08655630400363856</v>
+        <v>0.01534959911153306</v>
       </c>
       <c r="E8">
-        <v>-0.07919227558255799</v>
+        <v>0.007940881048688918</v>
       </c>
       <c r="F8">
-        <v>0.02078644997612168</v>
+        <v>-0.02021533145604416</v>
       </c>
       <c r="G8">
-        <v>-0.1301546958091107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.10028990217857</v>
+      </c>
+      <c r="H8">
+        <v>0.1107622227586562</v>
+      </c>
+      <c r="I8">
+        <v>0.01912118413409911</v>
+      </c>
+      <c r="J8">
+        <v>0.03171687217534007</v>
+      </c>
+      <c r="K8">
+        <v>-0.03115073736203597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.0942202852868477</v>
+        <v>0.0838853994075871</v>
       </c>
       <c r="C9">
-        <v>-0.03903513304822243</v>
+        <v>-0.05573147375156827</v>
       </c>
       <c r="D9">
-        <v>-0.0366603772868182</v>
+        <v>0.0118392605392698</v>
       </c>
       <c r="E9">
-        <v>-0.04639507569069905</v>
+        <v>0.01144952068823138</v>
       </c>
       <c r="F9">
-        <v>0.02126364024991269</v>
+        <v>-0.02435180770729059</v>
       </c>
       <c r="G9">
-        <v>-0.06712699038965693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06871765535781996</v>
+      </c>
+      <c r="H9">
+        <v>0.1212263607560473</v>
+      </c>
+      <c r="I9">
+        <v>-0.00127807879528339</v>
+      </c>
+      <c r="J9">
+        <v>0.01529555449731283</v>
+      </c>
+      <c r="K9">
+        <v>-0.002104204248803722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03753471093012093</v>
+        <v>0.09804067002216035</v>
       </c>
       <c r="C10">
-        <v>0.1553750406394712</v>
+        <v>0.164707879142518</v>
       </c>
       <c r="D10">
-        <v>-0.09162841555105306</v>
+        <v>-0.04177001114220175</v>
       </c>
       <c r="E10">
-        <v>-0.02659997565478564</v>
+        <v>-0.004072138076974604</v>
       </c>
       <c r="F10">
-        <v>-0.03401018452959005</v>
+        <v>-0.05362053078663668</v>
       </c>
       <c r="G10">
-        <v>-0.01515774094630896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.005488360444250642</v>
+      </c>
+      <c r="H10">
+        <v>-0.01353375138778473</v>
+      </c>
+      <c r="I10">
+        <v>-0.03211913327551711</v>
+      </c>
+      <c r="J10">
+        <v>0.03001758693325973</v>
+      </c>
+      <c r="K10">
+        <v>-0.04708378164286384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07668146376448656</v>
+        <v>0.07584990063893518</v>
       </c>
       <c r="C11">
-        <v>-0.06011222843373054</v>
+        <v>-0.06693689785652226</v>
       </c>
       <c r="D11">
-        <v>-0.006956410548238272</v>
+        <v>0.03598818543405242</v>
       </c>
       <c r="E11">
-        <v>0.006118930108528513</v>
+        <v>0.03357013675455707</v>
       </c>
       <c r="F11">
-        <v>0.01516949990367041</v>
+        <v>-0.007281825983707056</v>
       </c>
       <c r="G11">
-        <v>-0.1467253866107396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.07830261922269027</v>
+      </c>
+      <c r="H11">
+        <v>0.1071124079182116</v>
+      </c>
+      <c r="I11">
+        <v>0.005127790678790553</v>
+      </c>
+      <c r="J11">
+        <v>-0.1141359264158443</v>
+      </c>
+      <c r="K11">
+        <v>0.03608042109311376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07291217996839389</v>
+        <v>0.07232568544512029</v>
       </c>
       <c r="C12">
-        <v>-0.03855236775747645</v>
+        <v>-0.05790363306925064</v>
       </c>
       <c r="D12">
-        <v>-0.0007720747742639325</v>
+        <v>0.04166524801019684</v>
       </c>
       <c r="E12">
-        <v>-0.0328034417810815</v>
+        <v>0.04723702788867044</v>
       </c>
       <c r="F12">
-        <v>0.002783129394549539</v>
+        <v>-0.009718249664041426</v>
       </c>
       <c r="G12">
-        <v>-0.1374967083836132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0958905920129879</v>
+      </c>
+      <c r="H12">
+        <v>0.1059952144735116</v>
+      </c>
+      <c r="I12">
+        <v>-0.0145973731431409</v>
+      </c>
+      <c r="J12">
+        <v>-0.0985073682646985</v>
+      </c>
+      <c r="K12">
+        <v>0.02247143623607588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06524363818202708</v>
+        <v>0.04052050403073754</v>
       </c>
       <c r="C13">
-        <v>-0.007532024503838767</v>
+        <v>-0.02739101905099884</v>
       </c>
       <c r="D13">
-        <v>-0.009874538295732468</v>
+        <v>0.0125817277508621</v>
       </c>
       <c r="E13">
-        <v>-0.02389842294335625</v>
+        <v>-0.01079732695960521</v>
       </c>
       <c r="F13">
-        <v>0.03993469895447839</v>
+        <v>-0.02050949545532131</v>
       </c>
       <c r="G13">
-        <v>-0.06306015276471442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04287628029137695</v>
+      </c>
+      <c r="H13">
+        <v>0.04680117006822994</v>
+      </c>
+      <c r="I13">
+        <v>-0.02791666034929558</v>
+      </c>
+      <c r="J13">
+        <v>0.03765771474355221</v>
+      </c>
+      <c r="K13">
+        <v>-0.04324886766878801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05515024504703496</v>
+        <v>0.0441711914118006</v>
       </c>
       <c r="C14">
-        <v>-0.001265561055201591</v>
+        <v>-0.02194840814105052</v>
       </c>
       <c r="D14">
-        <v>-0.03733046311551297</v>
+        <v>0.001007874865673143</v>
       </c>
       <c r="E14">
-        <v>-0.0250944190376638</v>
+        <v>0.01504110796964728</v>
       </c>
       <c r="F14">
-        <v>0.009820209808083111</v>
+        <v>-0.004275434297379749</v>
       </c>
       <c r="G14">
-        <v>-0.07227383967167368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04916063788597874</v>
+      </c>
+      <c r="H14">
+        <v>0.04928234809840953</v>
+      </c>
+      <c r="I14">
+        <v>0.02230364925328384</v>
+      </c>
+      <c r="J14">
+        <v>0.04671746260840641</v>
+      </c>
+      <c r="K14">
+        <v>-0.0326783739321447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03935629096178673</v>
+        <v>0.02386481088813601</v>
       </c>
       <c r="C15">
-        <v>0.01074323792270476</v>
+        <v>-0.008824626179546966</v>
       </c>
       <c r="D15">
-        <v>-0.009779455496482866</v>
+        <v>-0.000622793003991629</v>
       </c>
       <c r="E15">
-        <v>-0.007199575553975324</v>
+        <v>-0.03556890475704994</v>
       </c>
       <c r="F15">
-        <v>0.0218307139599631</v>
+        <v>-0.01479955250224554</v>
       </c>
       <c r="G15">
-        <v>-0.02349494338939973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01439973368855538</v>
+      </c>
+      <c r="H15">
+        <v>0.01475414631520557</v>
+      </c>
+      <c r="I15">
+        <v>-0.01144043555890416</v>
+      </c>
+      <c r="J15">
+        <v>0.05232383554178247</v>
+      </c>
+      <c r="K15">
+        <v>-0.03769343427791375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.08049488786691066</v>
+        <v>0.08001404943801381</v>
       </c>
       <c r="C16">
-        <v>-0.07079751609843596</v>
+        <v>-0.06715580307105723</v>
       </c>
       <c r="D16">
-        <v>-0.01558567417189546</v>
+        <v>0.04741675199217026</v>
       </c>
       <c r="E16">
-        <v>-0.03446440939931646</v>
+        <v>0.03020255991038531</v>
       </c>
       <c r="F16">
-        <v>0.03764426716029652</v>
+        <v>-0.01277626595228949</v>
       </c>
       <c r="G16">
-        <v>-0.109008429420824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1011782732320728</v>
+      </c>
+      <c r="H16">
+        <v>0.09989599030657745</v>
+      </c>
+      <c r="I16">
+        <v>0.006521828817108085</v>
+      </c>
+      <c r="J16">
+        <v>-0.1184157483914764</v>
+      </c>
+      <c r="K16">
+        <v>0.01565934718401073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05073788195282051</v>
+        <v>0.04932243763476706</v>
       </c>
       <c r="C20">
-        <v>-0.01897807449751696</v>
+        <v>-0.03948264314611786</v>
       </c>
       <c r="D20">
-        <v>-0.01718103364982601</v>
+        <v>-0.01608684060362206</v>
       </c>
       <c r="E20">
-        <v>-0.02198937653035467</v>
+        <v>-0.002638935173255876</v>
       </c>
       <c r="F20">
-        <v>0.008688545973932737</v>
+        <v>-0.0159905849743192</v>
       </c>
       <c r="G20">
-        <v>-0.1076037219198296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05947889876071232</v>
+      </c>
+      <c r="H20">
+        <v>0.04705347742431065</v>
+      </c>
+      <c r="I20">
+        <v>-0.002529250836332539</v>
+      </c>
+      <c r="J20">
+        <v>0.02115982950401538</v>
+      </c>
+      <c r="K20">
+        <v>-0.05957245057080143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02644819797239739</v>
+        <v>0.02659725634892295</v>
       </c>
       <c r="C21">
-        <v>-0.03380609989134461</v>
+        <v>-0.02256597908596006</v>
       </c>
       <c r="D21">
-        <v>0.002359812512201994</v>
+        <v>-0.02848520437369142</v>
       </c>
       <c r="E21">
-        <v>-0.009666345902871755</v>
+        <v>-0.001589987780836147</v>
       </c>
       <c r="F21">
-        <v>-0.09048792689881342</v>
+        <v>0.01431248403343337</v>
       </c>
       <c r="G21">
-        <v>0.05283497259985045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05047003793202093</v>
+      </c>
+      <c r="H21">
+        <v>0.07582701612041216</v>
+      </c>
+      <c r="I21">
+        <v>-0.08116941067213922</v>
+      </c>
+      <c r="J21">
+        <v>0.02773769936322832</v>
+      </c>
+      <c r="K21">
+        <v>-0.1093749610191197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04529495665347048</v>
+        <v>0.03615027065470634</v>
       </c>
       <c r="C22">
-        <v>-0.00265991995897174</v>
+        <v>-0.01612276206600339</v>
       </c>
       <c r="D22">
-        <v>-0.005586780191026277</v>
+        <v>0.03151319429989427</v>
       </c>
       <c r="E22">
-        <v>-0.5604657457925456</v>
+        <v>-0.5888590677102494</v>
       </c>
       <c r="F22">
-        <v>0.08631483957363374</v>
+        <v>-0.2845032825714376</v>
       </c>
       <c r="G22">
-        <v>0.3175916889063178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.103720488134506</v>
+      </c>
+      <c r="H22">
+        <v>-0.1294093540942271</v>
+      </c>
+      <c r="I22">
+        <v>-0.02061376498890208</v>
+      </c>
+      <c r="J22">
+        <v>-0.07862832910293802</v>
+      </c>
+      <c r="K22">
+        <v>0.06066575017258406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04532587937396906</v>
+        <v>0.03635716087165402</v>
       </c>
       <c r="C23">
-        <v>-0.003334159878158385</v>
+        <v>-0.01677073500747761</v>
       </c>
       <c r="D23">
-        <v>-0.006753467361955832</v>
+        <v>0.03276810316191395</v>
       </c>
       <c r="E23">
-        <v>-0.5602593076390813</v>
+        <v>-0.590811718926147</v>
       </c>
       <c r="F23">
-        <v>0.08709826478380726</v>
+        <v>-0.2857455942983715</v>
       </c>
       <c r="G23">
-        <v>0.3189406435607248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1049208665887336</v>
+      </c>
+      <c r="H23">
+        <v>-0.1258695832117147</v>
+      </c>
+      <c r="I23">
+        <v>-0.01915001694797388</v>
+      </c>
+      <c r="J23">
+        <v>-0.07559114680287111</v>
+      </c>
+      <c r="K23">
+        <v>0.06320045468362294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08572122288589842</v>
+        <v>0.08259720165307578</v>
       </c>
       <c r="C24">
-        <v>-0.04592282510706935</v>
+        <v>-0.06139617910100502</v>
       </c>
       <c r="D24">
-        <v>-0.02141289154224046</v>
+        <v>0.02362071636322056</v>
       </c>
       <c r="E24">
-        <v>-0.03604562190894284</v>
+        <v>0.02679005362700474</v>
       </c>
       <c r="F24">
-        <v>0.004258961618839</v>
+        <v>-0.009304430100391003</v>
       </c>
       <c r="G24">
-        <v>-0.1153805556137839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.09920649886907044</v>
+      </c>
+      <c r="H24">
+        <v>0.09931560411443911</v>
+      </c>
+      <c r="I24">
+        <v>6.622485941993228e-05</v>
+      </c>
+      <c r="J24">
+        <v>-0.1192137382022104</v>
+      </c>
+      <c r="K24">
+        <v>0.04302963529461338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07590146121428953</v>
+        <v>0.08405228601961126</v>
       </c>
       <c r="C25">
-        <v>-0.01894401448256916</v>
+        <v>-0.04500113582654865</v>
       </c>
       <c r="D25">
-        <v>-0.02440390199777258</v>
+        <v>0.03325321661063854</v>
       </c>
       <c r="E25">
-        <v>-0.02572010872231343</v>
+        <v>0.0545380932536293</v>
       </c>
       <c r="F25">
-        <v>-0.0004623294007742191</v>
+        <v>-0.01180171415653832</v>
       </c>
       <c r="G25">
-        <v>-0.1097601799193162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.09927486232224941</v>
+      </c>
+      <c r="H25">
+        <v>0.09261407119864436</v>
+      </c>
+      <c r="I25">
+        <v>0.008477702403289922</v>
+      </c>
+      <c r="J25">
+        <v>-0.09592947181623743</v>
+      </c>
+      <c r="K25">
+        <v>0.02814859081749145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05197020873906894</v>
+        <v>0.04417613349441928</v>
       </c>
       <c r="C26">
-        <v>-0.02059364937843537</v>
+        <v>-0.01032274416161718</v>
       </c>
       <c r="D26">
-        <v>-0.03268385891770192</v>
+        <v>-0.01030335983723252</v>
       </c>
       <c r="E26">
-        <v>-0.01319882922519469</v>
+        <v>-0.01557432412787583</v>
       </c>
       <c r="F26">
-        <v>0.03035631247332718</v>
+        <v>0.001605552087439038</v>
       </c>
       <c r="G26">
-        <v>-0.05635839714626684</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0530747608355283</v>
+      </c>
+      <c r="H26">
+        <v>0.03436082924420732</v>
+      </c>
+      <c r="I26">
+        <v>0.007160405586062042</v>
+      </c>
+      <c r="J26">
+        <v>0.03207778290486338</v>
+      </c>
+      <c r="K26">
+        <v>-0.01600822980323567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06132101861751737</v>
+        <v>0.1223754399883298</v>
       </c>
       <c r="C28">
-        <v>0.2960141247912443</v>
+        <v>0.3036441782530219</v>
       </c>
       <c r="D28">
-        <v>-0.06031359983521444</v>
+        <v>0.005008766783550325</v>
       </c>
       <c r="E28">
-        <v>0.03429889089728732</v>
+        <v>0.006887410899570099</v>
       </c>
       <c r="F28">
-        <v>-0.04125233756552767</v>
+        <v>-0.006931403024806031</v>
       </c>
       <c r="G28">
-        <v>0.02521971965548837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01436557783264247</v>
+      </c>
+      <c r="H28">
+        <v>0.01130481296210275</v>
+      </c>
+      <c r="I28">
+        <v>-0.0134770777533333</v>
+      </c>
+      <c r="J28">
+        <v>-0.004912319060873424</v>
+      </c>
+      <c r="K28">
+        <v>-0.0199573284746397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05799170987669457</v>
+        <v>0.04052818051059483</v>
       </c>
       <c r="C29">
-        <v>-0.006017350922964431</v>
+        <v>-0.01985426331894647</v>
       </c>
       <c r="D29">
-        <v>-0.03132441415745263</v>
+        <v>0.01258208943512417</v>
       </c>
       <c r="E29">
-        <v>-0.04306771348512829</v>
+        <v>0.01949056623100329</v>
       </c>
       <c r="F29">
-        <v>0.03988696777983468</v>
+        <v>-0.02802089042294858</v>
       </c>
       <c r="G29">
-        <v>-0.05106017266491814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.09600807336519498</v>
+      </c>
+      <c r="H29">
+        <v>0.0387377212225507</v>
+      </c>
+      <c r="I29">
+        <v>0.002778092761971438</v>
+      </c>
+      <c r="J29">
+        <v>0.04314424207841132</v>
+      </c>
+      <c r="K29">
+        <v>-0.04745299967286652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1151257335637228</v>
+        <v>0.1064718346583264</v>
       </c>
       <c r="C30">
-        <v>0.01867942509261555</v>
+        <v>-0.04554559128991786</v>
       </c>
       <c r="D30">
-        <v>-0.07494723111766938</v>
+        <v>0.057669118416091</v>
       </c>
       <c r="E30">
-        <v>-0.1958407410873839</v>
+        <v>0.01065459515348227</v>
       </c>
       <c r="F30">
-        <v>-0.06650851906055079</v>
+        <v>0.004608685897330479</v>
       </c>
       <c r="G30">
-        <v>-0.1534129885227395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1739811540186622</v>
+      </c>
+      <c r="H30">
+        <v>0.1217574438100161</v>
+      </c>
+      <c r="I30">
+        <v>-0.1837418529625993</v>
+      </c>
+      <c r="J30">
+        <v>-0.08703768674723596</v>
+      </c>
+      <c r="K30">
+        <v>0.05376118541877356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05737180646922958</v>
+        <v>0.03847373131916491</v>
       </c>
       <c r="C31">
-        <v>-0.01787545674276882</v>
+        <v>-0.03796910775472676</v>
       </c>
       <c r="D31">
-        <v>0.009863849642441674</v>
+        <v>0.004673937106258212</v>
       </c>
       <c r="E31">
-        <v>-0.009164002999965557</v>
+        <v>-0.00050054811463668</v>
       </c>
       <c r="F31">
-        <v>0.02691262229858205</v>
+        <v>-0.003932969353375013</v>
       </c>
       <c r="G31">
-        <v>-0.006038918716196515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02714553420994504</v>
+      </c>
+      <c r="H31">
+        <v>0.01519027789258784</v>
+      </c>
+      <c r="I31">
+        <v>0.03609963578648011</v>
+      </c>
+      <c r="J31">
+        <v>0.02170358256393785</v>
+      </c>
+      <c r="K31">
+        <v>0.003148186803454218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03817932938210526</v>
+        <v>0.05397740249142782</v>
       </c>
       <c r="C32">
-        <v>0.01808143364970074</v>
+        <v>-0.001220815233989009</v>
       </c>
       <c r="D32">
-        <v>-0.004121341724848607</v>
+        <v>-0.01171127890249816</v>
       </c>
       <c r="E32">
-        <v>-0.08549444991510638</v>
+        <v>0.02345619324395938</v>
       </c>
       <c r="F32">
-        <v>0.07844689276851352</v>
+        <v>0.05824084720731732</v>
       </c>
       <c r="G32">
-        <v>-0.0581128682119417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02722380252998541</v>
+      </c>
+      <c r="H32">
+        <v>0.05138425105252236</v>
+      </c>
+      <c r="I32">
+        <v>0.02604596052032216</v>
+      </c>
+      <c r="J32">
+        <v>0.02600878063822044</v>
+      </c>
+      <c r="K32">
+        <v>-0.01897698686136436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1129483237151304</v>
+        <v>0.09601667121125246</v>
       </c>
       <c r="C33">
-        <v>-0.016821784191889</v>
+        <v>-0.04994315076231699</v>
       </c>
       <c r="D33">
-        <v>0.007894554605335192</v>
+        <v>0.06459389481422648</v>
       </c>
       <c r="E33">
-        <v>-0.008864380551711595</v>
+        <v>0.0340712989929108</v>
       </c>
       <c r="F33">
-        <v>0.05366540636511751</v>
+        <v>-0.01063451135186189</v>
       </c>
       <c r="G33">
-        <v>-0.05859114751798445</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0422022311192236</v>
+      </c>
+      <c r="H33">
+        <v>0.05489291330729714</v>
+      </c>
+      <c r="I33">
+        <v>0.01977364797071134</v>
+      </c>
+      <c r="J33">
+        <v>-0.01291891691382384</v>
+      </c>
+      <c r="K33">
+        <v>0.02070519250230132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06679119159636904</v>
+        <v>0.06752209306038931</v>
       </c>
       <c r="C34">
-        <v>-0.05210448902349993</v>
+        <v>-0.05021573092726504</v>
       </c>
       <c r="D34">
-        <v>-0.006596187095591032</v>
+        <v>0.02854019562271148</v>
       </c>
       <c r="E34">
-        <v>-0.01773091664593759</v>
+        <v>0.02831269464855437</v>
       </c>
       <c r="F34">
-        <v>0.01988543634418296</v>
+        <v>-0.009783972903981203</v>
       </c>
       <c r="G34">
-        <v>-0.09100171555522817</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.09301620282791259</v>
+      </c>
+      <c r="H34">
+        <v>0.09329380143562799</v>
+      </c>
+      <c r="I34">
+        <v>0.003950011911290813</v>
+      </c>
+      <c r="J34">
+        <v>-0.08956995107906232</v>
+      </c>
+      <c r="K34">
+        <v>-0.005887731852131503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04401916695651597</v>
+        <v>0.02064283994558273</v>
       </c>
       <c r="C35">
-        <v>-0.006521571804043762</v>
+        <v>-0.01642030670868636</v>
       </c>
       <c r="D35">
-        <v>0.01721177103504974</v>
+        <v>0.01234832953778127</v>
       </c>
       <c r="E35">
-        <v>-0.004113461167485283</v>
+        <v>0.007146323752903535</v>
       </c>
       <c r="F35">
-        <v>-0.03591155059076344</v>
+        <v>-0.006112357435818942</v>
       </c>
       <c r="G35">
-        <v>-0.04863791057100446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.0558216808167255</v>
+      </c>
+      <c r="H35">
+        <v>0.0202301309698425</v>
+      </c>
+      <c r="I35">
+        <v>-0.01469461342836994</v>
+      </c>
+      <c r="J35">
+        <v>-0.007565847411263642</v>
+      </c>
+      <c r="K35">
+        <v>-0.06427223249360654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03730875321727045</v>
+        <v>0.02908466409409119</v>
       </c>
       <c r="C36">
-        <v>-0.001485000700694162</v>
+        <v>-0.01157428382183362</v>
       </c>
       <c r="D36">
-        <v>-0.02470809762161597</v>
+        <v>0.003346370347575782</v>
       </c>
       <c r="E36">
-        <v>-0.03390515508172372</v>
+        <v>-0.003449690220520116</v>
       </c>
       <c r="F36">
-        <v>0.006625726610165283</v>
+        <v>-0.007313780449633825</v>
       </c>
       <c r="G36">
-        <v>-0.0626913381218837</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.05712433664585868</v>
+      </c>
+      <c r="H36">
+        <v>0.05497182235072394</v>
+      </c>
+      <c r="I36">
+        <v>-0.008687520992741934</v>
+      </c>
+      <c r="J36">
+        <v>0.02829108829520118</v>
+      </c>
+      <c r="K36">
+        <v>0.007433835028373799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05285202303855555</v>
+        <v>0.02228029716425711</v>
       </c>
       <c r="C38">
-        <v>-0.01697369049927433</v>
+        <v>-0.02778004841204512</v>
       </c>
       <c r="D38">
-        <v>-0.0005027639667462226</v>
+        <v>0.01132517509062508</v>
       </c>
       <c r="E38">
-        <v>-0.01058174940097963</v>
+        <v>-0.01008876117803532</v>
       </c>
       <c r="F38">
-        <v>-0.001356389479884647</v>
+        <v>-0.02158737178136573</v>
       </c>
       <c r="G38">
-        <v>-0.04618396789131619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01311276376906073</v>
+      </c>
+      <c r="H38">
+        <v>-0.05143239204680234</v>
+      </c>
+      <c r="I38">
+        <v>-0.01483763537303203</v>
+      </c>
+      <c r="J38">
+        <v>0.01215078073272786</v>
+      </c>
+      <c r="K38">
+        <v>0.02018291828773859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1083084510147384</v>
+        <v>0.1135583886772592</v>
       </c>
       <c r="C39">
-        <v>-0.0409881950343343</v>
+        <v>-0.07755628029395155</v>
       </c>
       <c r="D39">
-        <v>-0.004204126571842428</v>
+        <v>0.06711517298354729</v>
       </c>
       <c r="E39">
-        <v>-0.06841249511941681</v>
+        <v>0.1029985930998011</v>
       </c>
       <c r="F39">
-        <v>0.008561259810712925</v>
+        <v>0.008002646115542657</v>
       </c>
       <c r="G39">
-        <v>-0.1566453249528939</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.137358209618577</v>
+      </c>
+      <c r="H39">
+        <v>0.08207436106572277</v>
+      </c>
+      <c r="I39">
+        <v>-0.016475142554527</v>
+      </c>
+      <c r="J39">
+        <v>-0.1808835323968407</v>
+      </c>
+      <c r="K39">
+        <v>0.0231649550456197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05532771050938637</v>
+        <v>0.02230545140061168</v>
       </c>
       <c r="C40">
-        <v>-0.03267350930835344</v>
+        <v>-0.05686530159537022</v>
       </c>
       <c r="D40">
-        <v>0.02102700575436292</v>
+        <v>-0.001440766661724005</v>
       </c>
       <c r="E40">
-        <v>-0.1006397393461848</v>
+        <v>-0.05461394980164831</v>
       </c>
       <c r="F40">
-        <v>-0.01602968687202953</v>
+        <v>-0.03310934272138252</v>
       </c>
       <c r="G40">
-        <v>-0.2544140901977416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.07964042894282393</v>
+      </c>
+      <c r="H40">
+        <v>0.09910164706825153</v>
+      </c>
+      <c r="I40">
+        <v>-0.09089801437299129</v>
+      </c>
+      <c r="J40">
+        <v>0.009114100765587878</v>
+      </c>
+      <c r="K40">
+        <v>-0.01266047013976999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.0491076118599884</v>
+        <v>0.03376858292826796</v>
       </c>
       <c r="C41">
-        <v>-0.02863960465403354</v>
+        <v>-0.02764329057024389</v>
       </c>
       <c r="D41">
-        <v>-0.0007564125333453387</v>
+        <v>-0.001833326936048978</v>
       </c>
       <c r="E41">
-        <v>0.01258353301763553</v>
+        <v>0.01502000952490613</v>
       </c>
       <c r="F41">
-        <v>0.02174788243936102</v>
+        <v>-0.005977443628944605</v>
       </c>
       <c r="G41">
-        <v>-0.07109483870494056</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02551123441566474</v>
+      </c>
+      <c r="H41">
+        <v>0.008673966052626566</v>
+      </c>
+      <c r="I41">
+        <v>0.008153210403623268</v>
+      </c>
+      <c r="J41">
+        <v>0.00422974326121165</v>
+      </c>
+      <c r="K41">
+        <v>-0.0154230225313616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07434310939723546</v>
+        <v>0.04910791992674102</v>
       </c>
       <c r="C43">
-        <v>-0.0262979701896303</v>
+        <v>-0.02705303181618907</v>
       </c>
       <c r="D43">
-        <v>-0.02094383689906275</v>
+        <v>0.02178713648324149</v>
       </c>
       <c r="E43">
-        <v>-0.0247805614264454</v>
+        <v>0.001688962677003356</v>
       </c>
       <c r="F43">
-        <v>0.01819580159534416</v>
+        <v>-0.01930161994162615</v>
       </c>
       <c r="G43">
-        <v>-0.01446091756594983</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03650710312178072</v>
+      </c>
+      <c r="H43">
+        <v>-0.008193853515084091</v>
+      </c>
+      <c r="I43">
+        <v>0.003900881682068094</v>
+      </c>
+      <c r="J43">
+        <v>0.0002152704384146607</v>
+      </c>
+      <c r="K43">
+        <v>0.01088533071808669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07300340595195293</v>
+        <v>0.1050879198846027</v>
       </c>
       <c r="C44">
-        <v>-0.02008441846419926</v>
+        <v>-0.08118090509316106</v>
       </c>
       <c r="D44">
-        <v>-0.09849313111691518</v>
+        <v>0.05683655513964782</v>
       </c>
       <c r="E44">
-        <v>-0.05896826172710155</v>
+        <v>-0.03833442529580784</v>
       </c>
       <c r="F44">
-        <v>0.03706460142320701</v>
+        <v>-0.1281958269433189</v>
       </c>
       <c r="G44">
-        <v>-0.1124517958879767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2125367954008943</v>
+      </c>
+      <c r="H44">
+        <v>0.1260577440431408</v>
+      </c>
+      <c r="I44">
+        <v>-0.06918973428170692</v>
+      </c>
+      <c r="J44">
+        <v>0.06684770663372096</v>
+      </c>
+      <c r="K44">
+        <v>-0.1250969333887426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04699306798967962</v>
+        <v>0.02951774007225212</v>
       </c>
       <c r="C46">
-        <v>-0.03677350637205239</v>
+        <v>-0.02041716572085913</v>
       </c>
       <c r="D46">
-        <v>-0.03212952882555719</v>
+        <v>0.01350989536609135</v>
       </c>
       <c r="E46">
-        <v>-0.05094417697230227</v>
+        <v>-0.02007886735790807</v>
       </c>
       <c r="F46">
-        <v>0.01830405564060684</v>
+        <v>-0.04413752745996065</v>
       </c>
       <c r="G46">
-        <v>-0.04141664535070917</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05868176700384754</v>
+      </c>
+      <c r="H46">
+        <v>0.01639139363936147</v>
+      </c>
+      <c r="I46">
+        <v>-0.01037014435762459</v>
+      </c>
+      <c r="J46">
+        <v>0.02407829693335927</v>
+      </c>
+      <c r="K46">
+        <v>-0.07149479837584499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04926562470688487</v>
+        <v>0.04166432719500782</v>
       </c>
       <c r="C47">
-        <v>-0.0003691407683181882</v>
+        <v>-0.01825617281365411</v>
       </c>
       <c r="D47">
-        <v>-0.01074735530292116</v>
+        <v>0.008735126056016757</v>
       </c>
       <c r="E47">
-        <v>-0.06337548199223857</v>
+        <v>-0.007990721899281881</v>
       </c>
       <c r="F47">
-        <v>-0.005535432846097647</v>
+        <v>-0.008022356459530311</v>
       </c>
       <c r="G47">
-        <v>0.007637117632221432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04059302032785082</v>
+      </c>
+      <c r="H47">
+        <v>0.01769634803466522</v>
+      </c>
+      <c r="I47">
+        <v>-0.005453923301579241</v>
+      </c>
+      <c r="J47">
+        <v>0.04268223448608138</v>
+      </c>
+      <c r="K47">
+        <v>-0.02584447564984878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04333898335021254</v>
+        <v>0.04269992162630596</v>
       </c>
       <c r="C48">
-        <v>0.0006618106540955924</v>
+        <v>-0.01063917279494555</v>
       </c>
       <c r="D48">
-        <v>0.003013785478096668</v>
+        <v>0.005053125018755509</v>
       </c>
       <c r="E48">
-        <v>-0.03642641034366027</v>
+        <v>0.002380451879245961</v>
       </c>
       <c r="F48">
-        <v>0.004956819444147881</v>
+        <v>-0.00922982711769341</v>
       </c>
       <c r="G48">
-        <v>-0.04728320040914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.05422938645453541</v>
+      </c>
+      <c r="H48">
+        <v>0.05144188410704553</v>
+      </c>
+      <c r="I48">
+        <v>-0.02136057644749887</v>
+      </c>
+      <c r="J48">
+        <v>-0.002077993767477898</v>
+      </c>
+      <c r="K48">
+        <v>-0.0279531575344783</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2366045643980748</v>
+        <v>0.2279291873719487</v>
       </c>
       <c r="C49">
-        <v>-0.08671000314657111</v>
+        <v>-0.05124267056835505</v>
       </c>
       <c r="D49">
-        <v>-0.02820496419899332</v>
+        <v>-0.07711293353273307</v>
       </c>
       <c r="E49">
-        <v>0.09599294271876586</v>
+        <v>0.04965555752996071</v>
       </c>
       <c r="F49">
-        <v>-0.169004798629604</v>
+        <v>-0.009685956572759516</v>
       </c>
       <c r="G49">
-        <v>0.08789244332929223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.1930455861645661</v>
+      </c>
+      <c r="H49">
+        <v>-0.1413148354760951</v>
+      </c>
+      <c r="I49">
+        <v>-0.1635398763304015</v>
+      </c>
+      <c r="J49">
+        <v>-0.2290656218710595</v>
+      </c>
+      <c r="K49">
+        <v>0.2002421427295694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05528822615269372</v>
+        <v>0.0435030584207898</v>
       </c>
       <c r="C50">
-        <v>-0.01463600287361056</v>
+        <v>-0.02788938969821281</v>
       </c>
       <c r="D50">
-        <v>0.006707439678499023</v>
+        <v>-0.002800107601237001</v>
       </c>
       <c r="E50">
-        <v>-0.02947248567358436</v>
+        <v>-0.002433624487816754</v>
       </c>
       <c r="F50">
-        <v>0.05073939474832156</v>
+        <v>0.002013729706871075</v>
       </c>
       <c r="G50">
-        <v>0.002653248521051591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.04893470765794178</v>
+      </c>
+      <c r="H50">
+        <v>0.03055489031860964</v>
+      </c>
+      <c r="I50">
+        <v>0.02421216224123752</v>
+      </c>
+      <c r="J50">
+        <v>0.02667104813592821</v>
+      </c>
+      <c r="K50">
+        <v>0.02065183047794435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03574667136221708</v>
+        <v>0.0207860334125516</v>
       </c>
       <c r="C51">
-        <v>-0.01364394426824624</v>
+        <v>0.001401609690393803</v>
       </c>
       <c r="D51">
-        <v>-0.0127662945353722</v>
+        <v>0.01192519169456206</v>
       </c>
       <c r="E51">
-        <v>0.00919222095182276</v>
+        <v>0.005772413917821856</v>
       </c>
       <c r="F51">
-        <v>-0.003184832049433932</v>
+        <v>-0.02295846803601185</v>
       </c>
       <c r="G51">
-        <v>-0.003374151706519968</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03085064452533139</v>
+      </c>
+      <c r="H51">
+        <v>-0.00793866539015497</v>
+      </c>
+      <c r="I51">
+        <v>-0.01616005613422988</v>
+      </c>
+      <c r="J51">
+        <v>-0.03431280839989531</v>
+      </c>
+      <c r="K51">
+        <v>0.02402893857869079</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.06902892440527721</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03594750900100684</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01386591673447496</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02213422071790943</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.009190545047793871</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.06576268530924607</v>
+      </c>
+      <c r="H52">
+        <v>-0.04566223474676866</v>
+      </c>
+      <c r="I52">
+        <v>0.1123749229606649</v>
+      </c>
+      <c r="J52">
+        <v>0.01142457347736421</v>
+      </c>
+      <c r="K52">
+        <v>-0.002898463688232206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1573284849248646</v>
+        <v>0.1603848925271569</v>
       </c>
       <c r="C53">
-        <v>0.0009897103968704057</v>
+        <v>-0.03625282700898716</v>
       </c>
       <c r="D53">
-        <v>-0.01181450612514422</v>
+        <v>-0.00825011413548812</v>
       </c>
       <c r="E53">
-        <v>0.04742945118830189</v>
+        <v>0.01380677841153359</v>
       </c>
       <c r="F53">
-        <v>0.232918686498551</v>
+        <v>-0.01951950942818123</v>
       </c>
       <c r="G53">
-        <v>0.05880906493400151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03181192750229496</v>
+      </c>
+      <c r="H53">
+        <v>-0.1418265448044948</v>
+      </c>
+      <c r="I53">
+        <v>0.2547816508648191</v>
+      </c>
+      <c r="J53">
+        <v>0.0926879457891728</v>
+      </c>
+      <c r="K53">
+        <v>0.06619578277385289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05402072042251888</v>
+        <v>0.05183790216449191</v>
       </c>
       <c r="C54">
-        <v>-0.005407809118022854</v>
+        <v>-0.03851624347959436</v>
       </c>
       <c r="D54">
-        <v>-0.02897993125331026</v>
+        <v>1.500281822025015e-05</v>
       </c>
       <c r="E54">
-        <v>-0.0434416030705655</v>
+        <v>-0.01894200135307774</v>
       </c>
       <c r="F54">
-        <v>0.01447838678894232</v>
+        <v>-0.01970656543352349</v>
       </c>
       <c r="G54">
-        <v>-0.07873595919995578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.06581511519540542</v>
+      </c>
+      <c r="H54">
+        <v>0.1351297607494961</v>
+      </c>
+      <c r="I54">
+        <v>0.007929814977509178</v>
+      </c>
+      <c r="J54">
+        <v>0.1077679463554688</v>
+      </c>
+      <c r="K54">
+        <v>-0.1010302455113162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09339792007185581</v>
+        <v>0.08755129870591666</v>
       </c>
       <c r="C55">
-        <v>-0.0128718789108759</v>
+        <v>-0.03197463995748234</v>
       </c>
       <c r="D55">
-        <v>-0.01976951462898269</v>
+        <v>0.04885328507815481</v>
       </c>
       <c r="E55">
-        <v>-0.004527714916751482</v>
+        <v>0.0355603265446626</v>
       </c>
       <c r="F55">
-        <v>0.1766352475718628</v>
+        <v>-0.02873010752873639</v>
       </c>
       <c r="G55">
-        <v>0.01156328349504287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02316905120173923</v>
+      </c>
+      <c r="H55">
+        <v>-0.0433052805165184</v>
+      </c>
+      <c r="I55">
+        <v>0.1625236452581814</v>
+      </c>
+      <c r="J55">
+        <v>0.04204149963144953</v>
+      </c>
+      <c r="K55">
+        <v>0.01593248302811598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1601251502759707</v>
+        <v>0.1573784555614616</v>
       </c>
       <c r="C56">
-        <v>0.004020991974000593</v>
+        <v>-0.04711178827049386</v>
       </c>
       <c r="D56">
-        <v>-0.007208106293082226</v>
+        <v>0.01514707022657554</v>
       </c>
       <c r="E56">
-        <v>0.04648435808596181</v>
+        <v>0.04098876837291153</v>
       </c>
       <c r="F56">
-        <v>0.2297900024427563</v>
+        <v>-0.03845129027003494</v>
       </c>
       <c r="G56">
-        <v>0.0641271339169761</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.06403969029976109</v>
+      </c>
+      <c r="H56">
+        <v>-0.1075436894181844</v>
+      </c>
+      <c r="I56">
+        <v>0.2076659695548346</v>
+      </c>
+      <c r="J56">
+        <v>0.05830791149364977</v>
+      </c>
+      <c r="K56">
+        <v>0.06667062594384644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03426219961131637</v>
+        <v>0.04385302920549684</v>
       </c>
       <c r="C58">
-        <v>-0.05288658736675169</v>
+        <v>-0.04103062456573062</v>
       </c>
       <c r="D58">
-        <v>0.02680372040005138</v>
+        <v>0.01446459384824636</v>
       </c>
       <c r="E58">
-        <v>-0.2813034422982228</v>
+        <v>-0.08136163929283441</v>
       </c>
       <c r="F58">
-        <v>-0.4884026872292502</v>
+        <v>-0.0243288157260754</v>
       </c>
       <c r="G58">
-        <v>-0.1385946872129456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1080581064840164</v>
+      </c>
+      <c r="H58">
+        <v>-0.01537990415535266</v>
+      </c>
+      <c r="I58">
+        <v>-0.2063147705916966</v>
+      </c>
+      <c r="J58">
+        <v>-0.05901028655436704</v>
+      </c>
+      <c r="K58">
+        <v>-0.2301045795730731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1544709710842189</v>
+        <v>0.1909496440747598</v>
       </c>
       <c r="C59">
-        <v>0.3881975783964007</v>
+        <v>0.3021753827034906</v>
       </c>
       <c r="D59">
-        <v>-0.08441988505748378</v>
+        <v>0.01460087298314843</v>
       </c>
       <c r="E59">
-        <v>0.07522615940960983</v>
+        <v>0.04087874773493985</v>
       </c>
       <c r="F59">
-        <v>0.04507359089370025</v>
+        <v>-0.01601237819548822</v>
       </c>
       <c r="G59">
-        <v>-0.03130214184698889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.03333091647550954</v>
+      </c>
+      <c r="H59">
+        <v>0.05737869356841326</v>
+      </c>
+      <c r="I59">
+        <v>0.07906278879974955</v>
+      </c>
+      <c r="J59">
+        <v>-0.004317069021584382</v>
+      </c>
+      <c r="K59">
+        <v>-0.003429549294037269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2646305636908172</v>
+        <v>0.2511958292108292</v>
       </c>
       <c r="C60">
-        <v>-0.06358839257304866</v>
+        <v>-0.1074023569413073</v>
       </c>
       <c r="D60">
-        <v>-0.07472263418200488</v>
+        <v>-0.08158760333704858</v>
       </c>
       <c r="E60">
-        <v>0.08479411554463905</v>
+        <v>0.06126787887820247</v>
       </c>
       <c r="F60">
-        <v>-0.0831309003728779</v>
+        <v>-0.04907121031500599</v>
       </c>
       <c r="G60">
-        <v>0.194328926029806</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07955193905339394</v>
+      </c>
+      <c r="H60">
+        <v>-0.1065510486995128</v>
+      </c>
+      <c r="I60">
+        <v>-0.1134492880777951</v>
+      </c>
+      <c r="J60">
+        <v>0.007230838145663466</v>
+      </c>
+      <c r="K60">
+        <v>0.2175321305393375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09336990949669415</v>
+        <v>0.1042617796815707</v>
       </c>
       <c r="C61">
-        <v>-0.01774234756289272</v>
+        <v>-0.04585392268852914</v>
       </c>
       <c r="D61">
-        <v>-0.005280166006767416</v>
+        <v>0.0452210046994927</v>
       </c>
       <c r="E61">
-        <v>-0.0220535722941403</v>
+        <v>0.07492966289064841</v>
       </c>
       <c r="F61">
-        <v>0.02018161376489729</v>
+        <v>-0.02043893731019754</v>
       </c>
       <c r="G61">
-        <v>-0.06653541261753423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1218380949222933</v>
+      </c>
+      <c r="H61">
+        <v>0.08607147089194907</v>
+      </c>
+      <c r="I61">
+        <v>0.04682553331753075</v>
+      </c>
+      <c r="J61">
+        <v>-0.1014038681562149</v>
+      </c>
+      <c r="K61">
+        <v>-0.009045308100501949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1453735636944747</v>
+        <v>0.1510304800760735</v>
       </c>
       <c r="C62">
-        <v>-0.0255130485352143</v>
+        <v>-0.04818423623621621</v>
       </c>
       <c r="D62">
-        <v>0.03261557703466371</v>
+        <v>0.01768243692703146</v>
       </c>
       <c r="E62">
-        <v>0.1171505446712203</v>
+        <v>0.03828900090415382</v>
       </c>
       <c r="F62">
-        <v>0.2407733027372446</v>
+        <v>-0.009689049739834775</v>
       </c>
       <c r="G62">
-        <v>0.02807263818841447</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02999542025289153</v>
+      </c>
+      <c r="H62">
+        <v>-0.1160334588042834</v>
+      </c>
+      <c r="I62">
+        <v>0.2107033695400555</v>
+      </c>
+      <c r="J62">
+        <v>0.08861299007965023</v>
+      </c>
+      <c r="K62">
+        <v>0.04829779231405374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04284311218921236</v>
+        <v>0.04156549265580447</v>
       </c>
       <c r="C63">
-        <v>-0.01178838538826336</v>
+        <v>-0.01333470818646545</v>
       </c>
       <c r="D63">
-        <v>0.007164496606153561</v>
+        <v>0.01665936948480325</v>
       </c>
       <c r="E63">
-        <v>-0.01453391687702838</v>
+        <v>-0.003836372567933634</v>
       </c>
       <c r="F63">
-        <v>0.02001089160086817</v>
+        <v>0.02170933965769626</v>
       </c>
       <c r="G63">
-        <v>-0.04655481901587961</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.04616751444063342</v>
+      </c>
+      <c r="H63">
+        <v>0.05672276757162788</v>
+      </c>
+      <c r="I63">
+        <v>-0.01225065247712788</v>
+      </c>
+      <c r="J63">
+        <v>0.002383275828982324</v>
+      </c>
+      <c r="K63">
+        <v>0.003467821014577313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1057110241245787</v>
+        <v>0.09953281831002789</v>
       </c>
       <c r="C64">
-        <v>-0.01171990204951788</v>
+        <v>-0.03775612058884039</v>
       </c>
       <c r="D64">
-        <v>-0.0377653481931329</v>
+        <v>-0.01001323632661801</v>
       </c>
       <c r="E64">
-        <v>-0.03330620881753708</v>
+        <v>0.0109121210602292</v>
       </c>
       <c r="F64">
-        <v>-0.02595802067176868</v>
+        <v>-0.04942813573065297</v>
       </c>
       <c r="G64">
-        <v>-0.05099602352775776</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06536457426609096</v>
+      </c>
+      <c r="H64">
+        <v>0.05807717293550547</v>
+      </c>
+      <c r="I64">
+        <v>-0.0813883379088646</v>
+      </c>
+      <c r="J64">
+        <v>-0.0229804939337463</v>
+      </c>
+      <c r="K64">
+        <v>0.05765285199571648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.121614915008588</v>
+        <v>0.1187599600630002</v>
       </c>
       <c r="C65">
-        <v>-0.02914034717588196</v>
+        <v>-0.0287396565448901</v>
       </c>
       <c r="D65">
-        <v>-0.02529261676682006</v>
+        <v>-0.002811442007679891</v>
       </c>
       <c r="E65">
-        <v>-0.05837417937718806</v>
+        <v>-0.01117442485584331</v>
       </c>
       <c r="F65">
-        <v>-0.1857178349417349</v>
+        <v>0.03520927286167357</v>
       </c>
       <c r="G65">
-        <v>0.1682071929216614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.05291911093583019</v>
+      </c>
+      <c r="H65">
+        <v>0.02678725323791415</v>
+      </c>
+      <c r="I65">
+        <v>-0.2760604886543908</v>
+      </c>
+      <c r="J65">
+        <v>0.5014837360621389</v>
+      </c>
+      <c r="K65">
+        <v>0.2570265579029321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1594900187210057</v>
+        <v>0.1419361909912938</v>
       </c>
       <c r="C66">
-        <v>-0.05258387805146406</v>
+        <v>-0.103696413813198</v>
       </c>
       <c r="D66">
-        <v>0.02160054972617593</v>
+        <v>0.07077941795957055</v>
       </c>
       <c r="E66">
-        <v>-0.01677781729865647</v>
+        <v>0.1132611940236244</v>
       </c>
       <c r="F66">
-        <v>0.03446657840295926</v>
+        <v>0.01320905532847415</v>
       </c>
       <c r="G66">
-        <v>-0.3016416565920061</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1297363952624989</v>
+      </c>
+      <c r="H66">
+        <v>0.05895773236317833</v>
+      </c>
+      <c r="I66">
+        <v>0.009332204001920153</v>
+      </c>
+      <c r="J66">
+        <v>-0.2298730164763778</v>
+      </c>
+      <c r="K66">
+        <v>0.1041423342682898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1039245526113542</v>
+        <v>0.07204265326960686</v>
       </c>
       <c r="C67">
-        <v>-0.03945203527291361</v>
+        <v>-0.03411569873473409</v>
       </c>
       <c r="D67">
-        <v>-0.01835046475453786</v>
+        <v>0.06304801326802131</v>
       </c>
       <c r="E67">
-        <v>0.01422874310859126</v>
+        <v>0.003337726874032953</v>
       </c>
       <c r="F67">
-        <v>0.009512476998826161</v>
+        <v>-0.03572558331959833</v>
       </c>
       <c r="G67">
-        <v>-0.04143263871763587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.08149392145568339</v>
+      </c>
+      <c r="H67">
+        <v>-0.01449264049455583</v>
+      </c>
+      <c r="I67">
+        <v>0.01918561732556208</v>
+      </c>
+      <c r="J67">
+        <v>-0.02890319869476523</v>
+      </c>
+      <c r="K67">
+        <v>0.07375515063121896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04077219073620336</v>
+        <v>0.1026901738242326</v>
       </c>
       <c r="C68">
-        <v>0.2941178708952364</v>
+        <v>0.2791362646373407</v>
       </c>
       <c r="D68">
-        <v>-0.03716449664453606</v>
+        <v>0.006202977840330996</v>
       </c>
       <c r="E68">
-        <v>0.007890066912598718</v>
+        <v>0.006101572461165102</v>
       </c>
       <c r="F68">
-        <v>-0.01162713894240587</v>
+        <v>0.01510667681780293</v>
       </c>
       <c r="G68">
-        <v>0.02236176148194574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02275903296659877</v>
+      </c>
+      <c r="H68">
+        <v>0.03273579821801826</v>
+      </c>
+      <c r="I68">
+        <v>-0.001571927795430655</v>
+      </c>
+      <c r="J68">
+        <v>0.01753072428661518</v>
+      </c>
+      <c r="K68">
+        <v>0.00985520659031262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04533624723115807</v>
+        <v>0.03568984191624698</v>
       </c>
       <c r="C69">
-        <v>-0.0158523300307688</v>
+        <v>-0.0007410528238073247</v>
       </c>
       <c r="D69">
-        <v>-0.009729713304995233</v>
+        <v>0.02625580565915507</v>
       </c>
       <c r="E69">
-        <v>0.0032878756542863</v>
+        <v>0.006179967021021881</v>
       </c>
       <c r="F69">
-        <v>0.01445471731747576</v>
+        <v>-0.02245213634932766</v>
       </c>
       <c r="G69">
-        <v>-0.03004202085546316</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01354122698262061</v>
+      </c>
+      <c r="H69">
+        <v>-0.0007507563226281965</v>
+      </c>
+      <c r="I69">
+        <v>0.007386726429875885</v>
+      </c>
+      <c r="J69">
+        <v>0.02996685017355226</v>
+      </c>
+      <c r="K69">
+        <v>0.01087642389656028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07734093707318929</v>
+        <v>0.04642999866953459</v>
       </c>
       <c r="C70">
-        <v>-0.006742304184875281</v>
+        <v>-0.01030606195135348</v>
       </c>
       <c r="D70">
-        <v>-0.03816516733358902</v>
+        <v>0.02206406923630653</v>
       </c>
       <c r="E70">
-        <v>0.03505949547911259</v>
+        <v>0.04323417394667605</v>
       </c>
       <c r="F70">
-        <v>-0.07495952405385503</v>
+        <v>-0.03149669062703277</v>
       </c>
       <c r="G70">
-        <v>0.006895818619094742</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.02762638379374941</v>
+      </c>
+      <c r="H70">
+        <v>0.0173903067537276</v>
+      </c>
+      <c r="I70">
+        <v>-0.08179278531492234</v>
+      </c>
+      <c r="J70">
+        <v>0.1169421094782924</v>
+      </c>
+      <c r="K70">
+        <v>-0.1599988349582397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04964058461199597</v>
+        <v>0.1176984684412601</v>
       </c>
       <c r="C71">
-        <v>0.2983165278716432</v>
+        <v>0.2923480489759797</v>
       </c>
       <c r="D71">
-        <v>-0.05501675414400563</v>
+        <v>-0.004595754339248172</v>
       </c>
       <c r="E71">
-        <v>0.01217866195071358</v>
+        <v>0.007941993247757247</v>
       </c>
       <c r="F71">
-        <v>-0.01233561463973268</v>
+        <v>-0.01195187013227393</v>
       </c>
       <c r="G71">
-        <v>-0.01060053261164964</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04023421677401564</v>
+      </c>
+      <c r="H71">
+        <v>0.0272912330535623</v>
+      </c>
+      <c r="I71">
+        <v>-0.0006915302158186597</v>
+      </c>
+      <c r="J71">
+        <v>-0.01268703639143945</v>
+      </c>
+      <c r="K71">
+        <v>0.03984935587390546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1479177779814377</v>
+        <v>0.146367087040905</v>
       </c>
       <c r="C72">
-        <v>0.04565370473041773</v>
+        <v>-0.01412737520471691</v>
       </c>
       <c r="D72">
-        <v>0.2371973771027233</v>
+        <v>0.03493014674406535</v>
       </c>
       <c r="E72">
-        <v>0.026808980836997</v>
+        <v>-0.02830638872381201</v>
       </c>
       <c r="F72">
-        <v>0.03152096258017334</v>
+        <v>0.09489696045574331</v>
       </c>
       <c r="G72">
-        <v>-0.06063810403591353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.004532458852922134</v>
+      </c>
+      <c r="H72">
+        <v>-0.01797432511236917</v>
+      </c>
+      <c r="I72">
+        <v>0.02819318444174377</v>
+      </c>
+      <c r="J72">
+        <v>0.09872681907177711</v>
+      </c>
+      <c r="K72">
+        <v>0.1356225559654276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2864798540158488</v>
+        <v>0.2399265333128525</v>
       </c>
       <c r="C73">
-        <v>-0.1563470880633617</v>
+        <v>-0.1158058095238609</v>
       </c>
       <c r="D73">
-        <v>-0.04466647965043823</v>
+        <v>-0.004977019898244902</v>
       </c>
       <c r="E73">
-        <v>0.1613081220537182</v>
+        <v>0.1456103334455546</v>
       </c>
       <c r="F73">
-        <v>-0.3037842504309024</v>
+        <v>-0.1013431069928645</v>
       </c>
       <c r="G73">
-        <v>0.2610167608770745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3009876588705336</v>
+      </c>
+      <c r="H73">
+        <v>-0.3052779119981397</v>
+      </c>
+      <c r="I73">
+        <v>-0.3270769498907466</v>
+      </c>
+      <c r="J73">
+        <v>-0.2851263259953402</v>
+      </c>
+      <c r="K73">
+        <v>0.1245104957682123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09817993407648244</v>
+        <v>0.1117371945834742</v>
       </c>
       <c r="C74">
-        <v>-0.04000068857861493</v>
+        <v>-0.06173513162207454</v>
       </c>
       <c r="D74">
-        <v>-4.337504207430384e-06</v>
+        <v>0.03198936715023282</v>
       </c>
       <c r="E74">
-        <v>0.009275484286882813</v>
+        <v>0.01557424636899054</v>
       </c>
       <c r="F74">
-        <v>0.09933557968185833</v>
+        <v>-0.01866850520793303</v>
       </c>
       <c r="G74">
-        <v>0.02808560016689053</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07082319529659438</v>
+      </c>
+      <c r="H74">
+        <v>-0.1119077532683683</v>
+      </c>
+      <c r="I74">
+        <v>0.1098645656004613</v>
+      </c>
+      <c r="J74">
+        <v>0.037533489006303</v>
+      </c>
+      <c r="K74">
+        <v>0.02483012889211064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09279967790307571</v>
+        <v>0.1073424827645031</v>
       </c>
       <c r="C75">
-        <v>-0.01588342008137996</v>
+        <v>-0.04545813737595446</v>
       </c>
       <c r="D75">
-        <v>0.01909712312194189</v>
+        <v>0.006650186608071283</v>
       </c>
       <c r="E75">
-        <v>0.03283274386780521</v>
+        <v>0.009908334152582561</v>
       </c>
       <c r="F75">
-        <v>0.1165338787669597</v>
+        <v>0.001822653231949802</v>
       </c>
       <c r="G75">
-        <v>0.06448791842981308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.009835352809745793</v>
+      </c>
+      <c r="H75">
+        <v>-0.06766772961647724</v>
+      </c>
+      <c r="I75">
+        <v>0.1346579368461364</v>
+      </c>
+      <c r="J75">
+        <v>0.04320730337481493</v>
+      </c>
+      <c r="K75">
+        <v>-0.003654863340940181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1361170951007828</v>
+        <v>0.05790524282023982</v>
       </c>
       <c r="C76">
-        <v>-0.0298739323346419</v>
+        <v>-0.02959222454763176</v>
       </c>
       <c r="D76">
-        <v>-0.01865688815723623</v>
+        <v>0.02858753845752205</v>
       </c>
       <c r="E76">
-        <v>-0.02206645984802794</v>
+        <v>0.009481155696902797</v>
       </c>
       <c r="F76">
-        <v>0.2148137603908259</v>
+        <v>-0.04121799997354441</v>
       </c>
       <c r="G76">
-        <v>0.09809688581591344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.02871835068509898</v>
+      </c>
+      <c r="H76">
+        <v>-0.07081992633778177</v>
+      </c>
+      <c r="I76">
+        <v>0.1362431204627956</v>
+      </c>
+      <c r="J76">
+        <v>0.03726315778935674</v>
+      </c>
+      <c r="K76">
+        <v>0.00610964553942093</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08931119192663588</v>
+        <v>0.07212716836432008</v>
       </c>
       <c r="C77">
-        <v>0.01026698782360916</v>
+        <v>-0.03162161731833416</v>
       </c>
       <c r="D77">
-        <v>-0.04144118580830116</v>
+        <v>-0.02161851735669859</v>
       </c>
       <c r="E77">
-        <v>-0.04734667080812812</v>
+        <v>0.004255005900374914</v>
       </c>
       <c r="F77">
-        <v>-0.1626208314197306</v>
+        <v>-0.03974989611310032</v>
       </c>
       <c r="G77">
-        <v>-0.1724914623258562</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0573565041097461</v>
+      </c>
+      <c r="H77">
+        <v>0.2381030672503653</v>
+      </c>
+      <c r="I77">
+        <v>-0.1391454929764718</v>
+      </c>
+      <c r="J77">
+        <v>0.08820306579627958</v>
+      </c>
+      <c r="K77">
+        <v>0.1626951693292174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2151211013812687</v>
+        <v>0.1489155483356875</v>
       </c>
       <c r="C78">
-        <v>-0.07147634775610061</v>
+        <v>-0.1237744732008603</v>
       </c>
       <c r="D78">
-        <v>-0.06774409165222256</v>
+        <v>0.08700128752650957</v>
       </c>
       <c r="E78">
-        <v>-0.1772081906707953</v>
+        <v>-0.2041637045247144</v>
       </c>
       <c r="F78">
-        <v>0.01877507099887867</v>
+        <v>-0.08054450867600639</v>
       </c>
       <c r="G78">
-        <v>-0.1157059166885373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6506711632586351</v>
+      </c>
+      <c r="H78">
+        <v>0.5474444934755249</v>
+      </c>
+      <c r="I78">
+        <v>0.30373696059068</v>
+      </c>
+      <c r="J78">
+        <v>-0.0362973293470548</v>
+      </c>
+      <c r="K78">
+        <v>-0.01554792605426723</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1351368184528744</v>
+        <v>0.1345334644076938</v>
       </c>
       <c r="C79">
-        <v>-0.01263892067072878</v>
+        <v>-0.04769573201120518</v>
       </c>
       <c r="D79">
-        <v>-0.0008768126746595532</v>
+        <v>-0.009075887418525786</v>
       </c>
       <c r="E79">
-        <v>0.01291378216164221</v>
+        <v>0.01487037971457095</v>
       </c>
       <c r="F79">
-        <v>0.1670229816468703</v>
+        <v>-0.004997407226677079</v>
       </c>
       <c r="G79">
-        <v>-0.0003307684209329723</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.05282886664843876</v>
+      </c>
+      <c r="H79">
+        <v>-0.07376836306223958</v>
+      </c>
+      <c r="I79">
+        <v>0.1482470696181901</v>
+      </c>
+      <c r="J79">
+        <v>0.0741102020863431</v>
+      </c>
+      <c r="K79">
+        <v>0.05212433257560461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03350671374223974</v>
+        <v>0.0614792236244837</v>
       </c>
       <c r="C80">
-        <v>-0.01001707260994357</v>
+        <v>-0.04150357810750743</v>
       </c>
       <c r="D80">
-        <v>-0.01708090319406126</v>
+        <v>0.0403290520620842</v>
       </c>
       <c r="E80">
-        <v>0.02939680466460414</v>
+        <v>0.06637589953146983</v>
       </c>
       <c r="F80">
-        <v>-0.02153283058209593</v>
+        <v>-0.02846239020080011</v>
       </c>
       <c r="G80">
-        <v>-0.07330001822707681</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02747250061044675</v>
+      </c>
+      <c r="H80">
+        <v>0.05183945118084644</v>
+      </c>
+      <c r="I80">
+        <v>1.625491178884512e-05</v>
+      </c>
+      <c r="J80">
+        <v>-0.0009477920617205985</v>
+      </c>
+      <c r="K80">
+        <v>-0.1225540992677618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1085205393938616</v>
+        <v>0.1291677900636011</v>
       </c>
       <c r="C81">
-        <v>-0.01066802382986849</v>
+        <v>-0.0544144194841186</v>
       </c>
       <c r="D81">
-        <v>-0.01183685245284781</v>
+        <v>0.003126055791256668</v>
       </c>
       <c r="E81">
-        <v>0.01598604776621807</v>
+        <v>0.01435823656389581</v>
       </c>
       <c r="F81">
-        <v>0.142191026503927</v>
+        <v>-0.0189694041517373</v>
       </c>
       <c r="G81">
-        <v>0.03854170617391061</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.06866792565285441</v>
+      </c>
+      <c r="H81">
+        <v>-0.04788278441648312</v>
+      </c>
+      <c r="I81">
+        <v>0.1401798534993456</v>
+      </c>
+      <c r="J81">
+        <v>0.02948788105146653</v>
+      </c>
+      <c r="K81">
+        <v>-0.002271694579651407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1074162420555546</v>
+        <v>0.1431377187069679</v>
       </c>
       <c r="C82">
-        <v>-0.02790227131396969</v>
+        <v>-0.04498205220308292</v>
       </c>
       <c r="D82">
-        <v>-0.05658426248330423</v>
+        <v>-0.002445931282501039</v>
       </c>
       <c r="E82">
-        <v>0.05633002431064792</v>
+        <v>0.06023512031437889</v>
       </c>
       <c r="F82">
-        <v>0.2187978014899787</v>
+        <v>-0.02624717719149455</v>
       </c>
       <c r="G82">
-        <v>-0.001480508658703365</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.07772572023798012</v>
+      </c>
+      <c r="H82">
+        <v>-0.1475591398952946</v>
+      </c>
+      <c r="I82">
+        <v>0.2551250379496121</v>
+      </c>
+      <c r="J82">
+        <v>0.005166749942801464</v>
+      </c>
+      <c r="K82">
+        <v>-0.04303372763260026</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1039088457661126</v>
+        <v>0.09177979191169476</v>
       </c>
       <c r="C83">
-        <v>-0.05586496521884546</v>
+        <v>-0.1054678589896813</v>
       </c>
       <c r="D83">
-        <v>-0.0568945441475573</v>
+        <v>0.01546569413823104</v>
       </c>
       <c r="E83">
-        <v>0.02796413764072628</v>
+        <v>0.01240180133991859</v>
       </c>
       <c r="F83">
-        <v>-0.07588901949785994</v>
+        <v>-0.03485468331109477</v>
       </c>
       <c r="G83">
-        <v>-0.07031754373735762</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03462601794470901</v>
+      </c>
+      <c r="H83">
+        <v>0.03856627495596135</v>
+      </c>
+      <c r="I83">
+        <v>-0.04507916353277524</v>
+      </c>
+      <c r="J83">
+        <v>0.1175473513044906</v>
+      </c>
+      <c r="K83">
+        <v>-0.09356342472306729</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05419977151880063</v>
+        <v>0.05485562911832158</v>
       </c>
       <c r="C84">
-        <v>-0.02098125795581612</v>
+        <v>0.0272960714788869</v>
       </c>
       <c r="D84">
-        <v>0.0429081103857892</v>
+        <v>-0.03267122115368769</v>
       </c>
       <c r="E84">
-        <v>-0.03271567502027414</v>
+        <v>0.0156892784838845</v>
       </c>
       <c r="F84">
-        <v>0.02426938953801539</v>
+        <v>0.01793518392628764</v>
       </c>
       <c r="G84">
-        <v>0.02513717655258887</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.06861057807796066</v>
+      </c>
+      <c r="H84">
+        <v>0.05043934115670379</v>
+      </c>
+      <c r="I84">
+        <v>-0.01758725201579624</v>
+      </c>
+      <c r="J84">
+        <v>-0.330117706804777</v>
+      </c>
+      <c r="K84">
+        <v>-0.1908507810332898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1002754445023024</v>
+        <v>0.1170487721151465</v>
       </c>
       <c r="C85">
-        <v>-0.02153610880799345</v>
+        <v>-0.04359385909029195</v>
       </c>
       <c r="D85">
-        <v>-0.02495028190350684</v>
+        <v>-0.005554475632770148</v>
       </c>
       <c r="E85">
-        <v>0.01966069987357102</v>
+        <v>0.03231076655801598</v>
       </c>
       <c r="F85">
-        <v>0.1942926997710004</v>
+        <v>-0.03624899486909512</v>
       </c>
       <c r="G85">
-        <v>0.01491098253276434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.05467188717622008</v>
+      </c>
+      <c r="H85">
+        <v>-0.07033131068706003</v>
+      </c>
+      <c r="I85">
+        <v>0.1729018337408718</v>
+      </c>
+      <c r="J85">
+        <v>0.0590263649476581</v>
+      </c>
+      <c r="K85">
+        <v>0.05435188290644131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06997491608228673</v>
+        <v>0.1389035073638386</v>
       </c>
       <c r="C86">
-        <v>-0.02289984199314422</v>
+        <v>-0.09613591683499384</v>
       </c>
       <c r="D86">
-        <v>-0.05178362409411889</v>
+        <v>-0.8817019828265446</v>
       </c>
       <c r="E86">
-        <v>-0.0503084364977089</v>
+        <v>-0.1752989650225323</v>
       </c>
       <c r="F86">
-        <v>-0.01270539147530283</v>
+        <v>0.2906831482438346</v>
       </c>
       <c r="G86">
-        <v>-0.127898586271678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07568042021392427</v>
+      </c>
+      <c r="H86">
+        <v>0.0969765294362975</v>
+      </c>
+      <c r="I86">
+        <v>0.05215740991237087</v>
+      </c>
+      <c r="J86">
+        <v>-0.0583831381101026</v>
+      </c>
+      <c r="K86">
+        <v>-0.0365494187606701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.103869646535028</v>
+        <v>0.1108626446013249</v>
       </c>
       <c r="C87">
-        <v>-0.05803110546482518</v>
+        <v>-0.09163627191609933</v>
       </c>
       <c r="D87">
-        <v>-0.02196949922170182</v>
+        <v>0.006341223738438993</v>
       </c>
       <c r="E87">
-        <v>-0.05657038258725286</v>
+        <v>-0.007462839292508076</v>
       </c>
       <c r="F87">
-        <v>-0.01993944789427262</v>
+        <v>-0.03469854689976691</v>
       </c>
       <c r="G87">
-        <v>-0.1131826931465164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.04448402525406699</v>
+      </c>
+      <c r="H87">
+        <v>0.1342187265406325</v>
+      </c>
+      <c r="I87">
+        <v>-0.1355699750328395</v>
+      </c>
+      <c r="J87">
+        <v>0.1045702872948906</v>
+      </c>
+      <c r="K87">
+        <v>-0.03052953520631263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06964576090931472</v>
+        <v>0.05765029795551668</v>
       </c>
       <c r="C88">
-        <v>-0.03496242594541278</v>
+        <v>-0.0477050413311307</v>
       </c>
       <c r="D88">
-        <v>-0.02365564465622351</v>
+        <v>0.02179082076173557</v>
       </c>
       <c r="E88">
-        <v>-0.01040562830766269</v>
+        <v>0.05730660109330532</v>
       </c>
       <c r="F88">
-        <v>0.001383400826752247</v>
+        <v>-0.01177157399842579</v>
       </c>
       <c r="G88">
-        <v>-0.06226116544124057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02989746142088845</v>
+      </c>
+      <c r="H88">
+        <v>0.009766092918799096</v>
+      </c>
+      <c r="I88">
+        <v>-0.009169633094554326</v>
+      </c>
+      <c r="J88">
+        <v>-0.01896927570109639</v>
+      </c>
+      <c r="K88">
+        <v>0.008494953119347521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09486192192928776</v>
+        <v>0.1709705022838841</v>
       </c>
       <c r="C89">
-        <v>0.3688801936384629</v>
+        <v>0.3728621633997604</v>
       </c>
       <c r="D89">
-        <v>-0.1101240422113648</v>
+        <v>-0.01898970080865821</v>
       </c>
       <c r="E89">
-        <v>-0.01625013946748197</v>
+        <v>-0.03586544996527436</v>
       </c>
       <c r="F89">
-        <v>-0.06244606215134015</v>
+        <v>-0.05890887172560534</v>
       </c>
       <c r="G89">
-        <v>-0.01275646017031675</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01746150529598255</v>
+      </c>
+      <c r="H89">
+        <v>0.04446445962533478</v>
+      </c>
+      <c r="I89">
+        <v>-0.02709208742458162</v>
+      </c>
+      <c r="J89">
+        <v>-0.0127881205403198</v>
+      </c>
+      <c r="K89">
+        <v>-0.07897889469014355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07511467814410845</v>
+        <v>0.1338082771397298</v>
       </c>
       <c r="C90">
-        <v>0.2969562705528281</v>
+        <v>0.2776086797094565</v>
       </c>
       <c r="D90">
-        <v>-0.05041849678385579</v>
+        <v>-0.008239573325850704</v>
       </c>
       <c r="E90">
-        <v>-0.04362599115552378</v>
+        <v>0.01033273337487008</v>
       </c>
       <c r="F90">
-        <v>-0.05523599711335807</v>
+        <v>-0.0142591477634646</v>
       </c>
       <c r="G90">
-        <v>-0.04696376065345384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02793419293997969</v>
+      </c>
+      <c r="H90">
+        <v>0.03737851783374294</v>
+      </c>
+      <c r="I90">
+        <v>-0.05215441646191129</v>
+      </c>
+      <c r="J90">
+        <v>-0.04705467779398528</v>
+      </c>
+      <c r="K90">
+        <v>0.03272528917767963</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.0835056900341466</v>
+        <v>0.08157950993589787</v>
       </c>
       <c r="C91">
-        <v>-0.02269673787920884</v>
+        <v>-0.03849761428885824</v>
       </c>
       <c r="D91">
-        <v>-0.00480300577403808</v>
+        <v>-0.01841472119255625</v>
       </c>
       <c r="E91">
-        <v>0.01597182134724776</v>
+        <v>0.01135084111043404</v>
       </c>
       <c r="F91">
-        <v>0.08057843685293647</v>
+        <v>-0.01511198679954173</v>
       </c>
       <c r="G91">
-        <v>0.06538328349175068</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02044506947873512</v>
+      </c>
+      <c r="H91">
+        <v>-0.06249347650729044</v>
+      </c>
+      <c r="I91">
+        <v>0.1083218293619254</v>
+      </c>
+      <c r="J91">
+        <v>0.04185829408411861</v>
+      </c>
+      <c r="K91">
+        <v>-0.002841784964310088</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.07077049260673358</v>
+        <v>0.1445221264551243</v>
       </c>
       <c r="C92">
-        <v>0.3429648821929545</v>
+        <v>0.3310183164500018</v>
       </c>
       <c r="D92">
-        <v>-0.07062530807842995</v>
+        <v>-0.00328214750990747</v>
       </c>
       <c r="E92">
-        <v>-0.01950180083968789</v>
+        <v>-0.03255308430749573</v>
       </c>
       <c r="F92">
-        <v>-0.03836040285320512</v>
+        <v>-0.03190498026497671</v>
       </c>
       <c r="G92">
-        <v>0.03405312488826811</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.004892855829202181</v>
+      </c>
+      <c r="H92">
+        <v>0.06730082030860168</v>
+      </c>
+      <c r="I92">
+        <v>0.03718884996757758</v>
+      </c>
+      <c r="J92">
+        <v>-0.02067183294699177</v>
+      </c>
+      <c r="K92">
+        <v>-0.002702972249631983</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08694940065632151</v>
+        <v>0.1384075564129596</v>
       </c>
       <c r="C93">
-        <v>0.2958524578818402</v>
+        <v>0.3094181239210172</v>
       </c>
       <c r="D93">
-        <v>-0.05358417693133948</v>
+        <v>-0.03439466735593495</v>
       </c>
       <c r="E93">
-        <v>-0.007187448391623603</v>
+        <v>0.03007632009879408</v>
       </c>
       <c r="F93">
-        <v>-0.01983923948297396</v>
+        <v>-0.004260625669098408</v>
       </c>
       <c r="G93">
-        <v>0.006458924733023163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02895440521842236</v>
+      </c>
+      <c r="H93">
+        <v>0.00743473228265954</v>
+      </c>
+      <c r="I93">
+        <v>-0.02472449560720899</v>
+      </c>
+      <c r="J93">
+        <v>-0.005307371905779766</v>
+      </c>
+      <c r="K93">
+        <v>-0.002492181396909631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09236657494759429</v>
+        <v>0.121632510515346</v>
       </c>
       <c r="C94">
-        <v>-0.04455162637117508</v>
+        <v>-0.04858496073721522</v>
       </c>
       <c r="D94">
-        <v>0.005655191928191875</v>
+        <v>0.02244848486827261</v>
       </c>
       <c r="E94">
-        <v>-0.0014201847679267</v>
+        <v>0.001512962929618178</v>
       </c>
       <c r="F94">
-        <v>0.1276368594218672</v>
+        <v>-0.02848522799245981</v>
       </c>
       <c r="G94">
-        <v>0.06281678199385697</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.02012307801433136</v>
+      </c>
+      <c r="H94">
+        <v>-0.1008355593101129</v>
+      </c>
+      <c r="I94">
+        <v>0.122513263718706</v>
+      </c>
+      <c r="J94">
+        <v>0.002679638663690432</v>
+      </c>
+      <c r="K94">
+        <v>0.01905240646100319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.136773565084535</v>
+        <v>0.120566644593396</v>
       </c>
       <c r="C95">
-        <v>-0.07146799142114875</v>
+        <v>-0.06962963220729408</v>
       </c>
       <c r="D95">
-        <v>-0.06878323950092474</v>
+        <v>0.01570971007163218</v>
       </c>
       <c r="E95">
-        <v>-0.0236005400405022</v>
+        <v>-0.004792677708549048</v>
       </c>
       <c r="F95">
-        <v>-0.05258877280666972</v>
+        <v>-0.0750030274032584</v>
       </c>
       <c r="G95">
-        <v>-0.119181984082211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.003465259633571309</v>
+      </c>
+      <c r="H95">
+        <v>0.1231138354594011</v>
+      </c>
+      <c r="I95">
+        <v>-0.2153042557262028</v>
+      </c>
+      <c r="J95">
+        <v>-0.04804211811198327</v>
+      </c>
+      <c r="K95">
+        <v>-0.1356464487053005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.008238725190146306</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002595806001012039</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.002982571376010928</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.005495322392457105</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.001063954912627001</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.007246676714120729</v>
+      </c>
+      <c r="H96">
+        <v>0.0173349639178546</v>
+      </c>
+      <c r="I96">
+        <v>-0.005300810708678034</v>
+      </c>
+      <c r="J96">
+        <v>0.01280050801957948</v>
+      </c>
+      <c r="K96">
+        <v>0.01640475859764274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2053918448790004</v>
+        <v>0.1883880864169842</v>
       </c>
       <c r="C97">
-        <v>0.1463407039468155</v>
+        <v>-0.02233465434941557</v>
       </c>
       <c r="D97">
-        <v>0.9011603354126595</v>
+        <v>0.3634722231627537</v>
       </c>
       <c r="E97">
-        <v>-0.03681180173211798</v>
+        <v>-0.3468373946826444</v>
       </c>
       <c r="F97">
-        <v>-0.04932686185684043</v>
+        <v>0.8065867880098539</v>
       </c>
       <c r="G97">
-        <v>-0.02436016077110647</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.0150863856667938</v>
+      </c>
+      <c r="H97">
+        <v>-0.07154864816156058</v>
+      </c>
+      <c r="I97">
+        <v>-0.05226068211797089</v>
+      </c>
+      <c r="J97">
+        <v>-0.05925656780916929</v>
+      </c>
+      <c r="K97">
+        <v>-0.02230363783660134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3152707465747664</v>
+        <v>0.267749889309685</v>
       </c>
       <c r="C98">
-        <v>-0.0743248052647601</v>
+        <v>-0.09214273441366717</v>
       </c>
       <c r="D98">
-        <v>-0.0561974815313867</v>
+        <v>-0.03280570072992191</v>
       </c>
       <c r="E98">
-        <v>0.2530704197497405</v>
+        <v>0.007915013673941679</v>
       </c>
       <c r="F98">
-        <v>-0.1973198189379599</v>
+        <v>-0.04419157205168344</v>
       </c>
       <c r="G98">
-        <v>0.2785789653948235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2425510620525863</v>
+      </c>
+      <c r="H98">
+        <v>-0.2653754868446244</v>
+      </c>
+      <c r="I98">
+        <v>-0.1166044097342073</v>
+      </c>
+      <c r="J98">
+        <v>0.1725267493142898</v>
+      </c>
+      <c r="K98">
+        <v>-0.6221642438445358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08344804335942403</v>
+        <v>0.05650080380483</v>
       </c>
       <c r="C99">
-        <v>-0.03314117757093618</v>
+        <v>-0.02291068388273593</v>
       </c>
       <c r="D99">
-        <v>-0.01013485893895798</v>
+        <v>0.03375041544190213</v>
       </c>
       <c r="E99">
-        <v>0.01420329172095662</v>
+        <v>-0.001905682802003331</v>
       </c>
       <c r="F99">
-        <v>0.01363542677730678</v>
+        <v>-0.03712773240481827</v>
       </c>
       <c r="G99">
-        <v>-0.01808082530413155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.007244066257750274</v>
+      </c>
+      <c r="H99">
+        <v>-0.001776792487606274</v>
+      </c>
+      <c r="I99">
+        <v>0.01284980603350227</v>
+      </c>
+      <c r="J99">
+        <v>-0.03078988566206113</v>
+      </c>
+      <c r="K99">
+        <v>0.0465168925727083</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01698145132004192</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.01713736452322482</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.1029412006358303</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04019370164327642</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.0157204307724752</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.04808961523100082</v>
+      </c>
+      <c r="H100">
+        <v>-0.01229111756281168</v>
+      </c>
+      <c r="I100">
+        <v>0.05047905768519152</v>
+      </c>
+      <c r="J100">
+        <v>0.0158487314461239</v>
+      </c>
+      <c r="K100">
+        <v>-0.2587934545385605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05823779822278548</v>
+        <v>0.04036485065372935</v>
       </c>
       <c r="C101">
-        <v>-0.00560342939086378</v>
+        <v>-0.02013595552464456</v>
       </c>
       <c r="D101">
-        <v>-0.03143891309080707</v>
+        <v>0.01311426769761802</v>
       </c>
       <c r="E101">
-        <v>-0.0412985552456224</v>
+        <v>0.02062765937308536</v>
       </c>
       <c r="F101">
-        <v>0.03903255486192534</v>
+        <v>-0.02798205600405495</v>
       </c>
       <c r="G101">
-        <v>-0.05071298220673039</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09289244059486132</v>
+      </c>
+      <c r="H101">
+        <v>0.03787138846043995</v>
+      </c>
+      <c r="I101">
+        <v>0.005243580300394397</v>
+      </c>
+      <c r="J101">
+        <v>0.04087604370577872</v>
+      </c>
+      <c r="K101">
+        <v>-0.04965492276637609</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
